--- a/data/extracted_bioerosion_data.xlsx
+++ b/data/extracted_bioerosion_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,140 +458,135 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Taxa</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Coords</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Coords</t>
+          <t>Cleaned_Coords</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Cleaned_Coords</t>
+          <t>Life stages</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Life stages</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>pCO2 (µatm)</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>pCO2 (µatm)</t>
+          <t>pH (NBS)</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>pH (NBS)</t>
+          <t>pH (SWS)</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>pH (SWS)</t>
+          <t>pH (Total)</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>pH (Total)</t>
+          <t>TA (µmol kg-1)</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>TA (µmol kg-1)</t>
+          <t>DIC (µmol/L)</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>DIC (µmol/L)</t>
+          <t>omegaCa</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>omegaCa</t>
+          <t>omegaAr</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>omegaAr</t>
+          <t>CO32– (µmol kg SW-1)</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>CO32– (µmol kg SW-1)</t>
+          <t>HCO3- (µmol kg SW-1)</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>HCO3- (µmol kg SW-1)</t>
+          <t>DO (mg l-1)</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>DO (mg l-1)</t>
+          <t>Irradiance (µmol photons m-2 s-1)</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Irradiance (µmol photons m-2 s-1)</t>
+          <t>Integrated PAR (mol quanta m-2day-1)</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>Integrated PAR (mol quanta m-2day-1)</t>
+          <t>Temperature (ºC)</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Temperature (ºC)</t>
+          <t>Salinity (ppt)</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>Salinity (ppt)</t>
+          <t>n</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Calcification</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>Calcification</t>
+          <t>Calcification se</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>Calcification se</t>
+          <t>Calcification sd</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>Calcification sd</t>
+          <t>Calcification unit</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>Calcification unit</t>
+          <t>Duration (days)</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
-        <is>
-          <t>Duration (days)</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
         <is>
           <t>Methods</t>
         </is>
@@ -618,47 +613,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Heron Island, Great Barrier Reef</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Heron Island, Great Barrier Reef</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
           <t>23°27′S; 151°55′E</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="J2" t="n">
         <v>440.5</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>8.105</v>
       </c>
+      <c r="N2" s="1" t="n">
+        <v>2251.15</v>
+      </c>
       <c r="O2" s="1" t="n">
-        <v>2251.15</v>
-      </c>
-      <c r="P2" s="1" t="n">
         <v>2009.7</v>
       </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
         <v>3.45</v>
       </c>
-      <c r="X2" s="2" t="n">
+      <c r="W2" s="2" t="n">
         <v>28.2</v>
       </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -670,39 +660,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
+      <c r="J3" t="n">
         <v>917</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>7.875</v>
       </c>
+      <c r="N3" s="1" t="n">
+        <v>2251.9</v>
+      </c>
       <c r="O3" s="1" t="n">
-        <v>2251.9</v>
-      </c>
-      <c r="P3" s="1" t="n">
         <v>2140.1</v>
       </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
         <v>2.15</v>
       </c>
-      <c r="X3" s="2" t="n">
+      <c r="W3" s="2" t="n">
         <v>28.2</v>
       </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0.45</v>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -714,39 +699,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
+      <c r="J4" t="n">
         <v>420.5</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>8.15</v>
       </c>
+      <c r="N4" s="1" t="n">
+        <v>2251.2</v>
+      </c>
       <c r="O4" s="1" t="n">
-        <v>2251.2</v>
-      </c>
-      <c r="P4" s="1" t="n">
         <v>2002.7</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
         <v>2.95</v>
       </c>
-      <c r="X4" s="2" t="n">
+      <c r="W4" s="2" t="n">
         <v>31.25</v>
       </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>2.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -758,39 +738,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
+      <c r="J5" t="n">
         <v>914.5</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>7.88</v>
       </c>
+      <c r="N5" s="1" t="n">
+        <v>2251.4</v>
+      </c>
       <c r="O5" s="1" t="n">
-        <v>2251.4</v>
-      </c>
-      <c r="P5" s="1" t="n">
         <v>2149.7</v>
       </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
         <v>1.8</v>
       </c>
-      <c r="X5" s="2" t="n">
+      <c r="W5" s="2" t="n">
         <v>31.05</v>
       </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0.45</v>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -817,53 +792,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Orpheus Island, Great Barrier Reef</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orpheus Island, Great Barrier Reef</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
           <t>9°21'00.0"N 82°15'36.0"W</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="J6" t="n">
         <v>455</v>
       </c>
+      <c r="M6" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="N6" s="1" t="n">
-        <v>8</v>
+        <v>2305.3</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>2305.3</v>
-      </c>
-      <c r="P6" s="1" t="n">
         <v>2061.2</v>
       </c>
+      <c r="Q6" t="n">
+        <v>2.8</v>
+      </c>
       <c r="R6" t="n">
-        <v>2.8</v>
+        <v>77.7</v>
       </c>
       <c r="S6" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="T6" t="n">
         <v>1869.4</v>
       </c>
-      <c r="X6" s="2" t="n">
+      <c r="W6" s="2" t="n">
         <v>21.8</v>
       </c>
+      <c r="Y6" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z6" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA6" t="n">
         <v>0.15</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AB6" t="n">
         <v>0.04</v>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -875,45 +845,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
+      <c r="J7" t="n">
         <v>804.6</v>
       </c>
+      <c r="M7" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N7" s="1" t="n">
-        <v>7.8</v>
+        <v>2384.9</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>2384.9</v>
-      </c>
-      <c r="P7" s="1" t="n">
         <v>2227.8</v>
       </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>126.8</v>
       </c>
       <c r="S7" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="T7" t="n">
         <v>2076.3</v>
       </c>
-      <c r="X7" s="2" t="n">
+      <c r="W7" s="2" t="n">
         <v>22.1</v>
       </c>
+      <c r="Y7" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z7" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA7" t="n">
         <v>0.37</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AB7" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -925,45 +890,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8" t="n">
         <v>1782.2</v>
       </c>
+      <c r="M8" s="1" t="n">
+        <v>7.52</v>
+      </c>
       <c r="N8" s="1" t="n">
-        <v>7.52</v>
+        <v>2607.3</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>2607.3</v>
-      </c>
-      <c r="P8" s="1" t="n">
         <v>2553.2</v>
       </c>
+      <c r="Q8" t="n">
+        <v>1.23</v>
+      </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="T8" t="n">
         <v>2420.5</v>
       </c>
-      <c r="X8" s="2" t="n">
+      <c r="W8" s="2" t="n">
         <v>22.1</v>
       </c>
+      <c r="Y8" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z8" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA8" t="n">
         <v>1.04</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AB8" t="n">
         <v>0.1</v>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -975,45 +935,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
+      <c r="J9" t="n">
         <v>418.2</v>
       </c>
+      <c r="M9" s="1" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="N9" s="1" t="n">
-        <v>8.039999999999999</v>
+        <v>2317.9</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>2317.9</v>
-      </c>
-      <c r="P9" s="1" t="n">
         <v>2031.8</v>
       </c>
+      <c r="Q9" t="n">
+        <v>3.27</v>
+      </c>
       <c r="R9" t="n">
-        <v>3.27</v>
+        <v>205.7</v>
       </c>
       <c r="S9" t="n">
-        <v>205.7</v>
-      </c>
-      <c r="T9" t="n">
         <v>1814</v>
       </c>
-      <c r="X9" s="2" t="n">
+      <c r="W9" s="2" t="n">
         <v>23.9</v>
       </c>
+      <c r="Y9" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z9" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA9" t="n">
         <v>0.21</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AB9" t="n">
         <v>0.04</v>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1025,45 +980,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
+      <c r="J10" t="n">
         <v>742.2</v>
       </c>
+      <c r="M10" s="1" t="n">
+        <v>7.84</v>
+      </c>
       <c r="N10" s="1" t="n">
-        <v>7.84</v>
+        <v>2414.1</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>2414.1</v>
-      </c>
-      <c r="P10" s="1" t="n">
         <v>2221.5</v>
       </c>
+      <c r="Q10" t="n">
+        <v>2.39</v>
+      </c>
       <c r="R10" t="n">
-        <v>2.39</v>
+        <v>150</v>
       </c>
       <c r="S10" t="n">
-        <v>150</v>
-      </c>
-      <c r="T10" t="n">
         <v>2050.5</v>
       </c>
-      <c r="X10" s="2" t="n">
+      <c r="W10" s="2" t="n">
         <v>24.5</v>
       </c>
+      <c r="Y10" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z10" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA10" t="n">
         <v>0.51</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AB10" t="n">
         <v>0.04</v>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1075,45 +1025,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
+      <c r="J11" t="n">
         <v>1594.7</v>
       </c>
+      <c r="M11" s="1" t="n">
+        <v>7.57</v>
+      </c>
       <c r="N11" s="1" t="n">
-        <v>7.57</v>
+        <v>2614</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>2614</v>
-      </c>
-      <c r="P11" s="1" t="n">
         <v>2526.3</v>
       </c>
+      <c r="Q11" t="n">
+        <v>1.54</v>
+      </c>
       <c r="R11" t="n">
-        <v>1.54</v>
+        <v>96.3</v>
       </c>
       <c r="S11" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="T11" t="n">
         <v>2384.7</v>
       </c>
-      <c r="X11" s="2" t="n">
+      <c r="W11" s="2" t="n">
         <v>24.5</v>
       </c>
+      <c r="Y11" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z11" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA11" t="n">
         <v>1.09</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AB11" t="n">
         <v>0.04</v>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1125,45 +1070,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
+      <c r="J12" t="n">
         <v>418.9</v>
       </c>
+      <c r="M12" s="1" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="N12" s="1" t="n">
-        <v>8.029999999999999</v>
+        <v>2283.2</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>2283.2</v>
-      </c>
-      <c r="P12" s="1" t="n">
         <v>1973.4</v>
       </c>
+      <c r="Q12" t="n">
+        <v>3.58</v>
+      </c>
       <c r="R12" t="n">
-        <v>3.58</v>
+        <v>221</v>
       </c>
       <c r="S12" t="n">
-        <v>221</v>
-      </c>
-      <c r="T12" t="n">
         <v>1741.4</v>
       </c>
-      <c r="X12" s="2" t="n">
+      <c r="W12" s="2" t="n">
         <v>27.8</v>
       </c>
+      <c r="Y12" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z12" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA12" t="n">
         <v>0.09</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AB12" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1175,45 +1115,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K13" t="n">
+      <c r="J13" t="n">
         <v>773.8</v>
       </c>
+      <c r="M13" s="1" t="n">
+        <v>7.81</v>
+      </c>
       <c r="N13" s="1" t="n">
-        <v>7.81</v>
+        <v>2359</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>2359</v>
-      </c>
-      <c r="P13" s="1" t="n">
         <v>2157.2</v>
       </c>
+      <c r="Q13" t="n">
+        <v>2.52</v>
+      </c>
       <c r="R13" t="n">
-        <v>2.52</v>
+        <v>155.2</v>
       </c>
       <c r="S13" t="n">
-        <v>155.2</v>
-      </c>
-      <c r="T13" t="n">
         <v>1981.8</v>
       </c>
-      <c r="X13" s="2" t="n">
+      <c r="W13" s="2" t="n">
         <v>27.9</v>
       </c>
+      <c r="Y13" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z13" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA13" t="n">
         <v>0.25</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AB13" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1225,45 +1160,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K14" t="n">
+      <c r="J14" t="n">
         <v>1676.8</v>
       </c>
+      <c r="M14" s="1" t="n">
+        <v>7.55</v>
+      </c>
       <c r="N14" s="1" t="n">
-        <v>7.55</v>
+        <v>2583.5</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>2583.5</v>
-      </c>
-      <c r="P14" s="1" t="n">
         <v>2487.5</v>
       </c>
+      <c r="Q14" t="n">
+        <v>1.64</v>
+      </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>100.9</v>
       </c>
       <c r="S14" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="T14" t="n">
         <v>2342.9</v>
       </c>
-      <c r="X14" s="2" t="n">
+      <c r="W14" s="2" t="n">
         <v>27.9</v>
       </c>
+      <c r="Y14" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z14" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA14" t="n">
         <v>0.95</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AB14" t="n">
         <v>0.08</v>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1275,45 +1205,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
+      <c r="J15" t="n">
         <v>380</v>
       </c>
+      <c r="M15" s="1" t="n">
+        <v>8.07</v>
+      </c>
       <c r="N15" s="1" t="n">
-        <v>8.07</v>
+        <v>2350.2</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>2350.2</v>
-      </c>
-      <c r="P15" s="1" t="n">
         <v>1974.6</v>
       </c>
+      <c r="Q15" t="n">
+        <v>4.36</v>
+      </c>
       <c r="R15" t="n">
-        <v>4.36</v>
+        <v>266</v>
       </c>
       <c r="S15" t="n">
-        <v>266</v>
-      </c>
-      <c r="T15" t="n">
         <v>1699.2</v>
       </c>
-      <c r="X15" s="2" t="n">
+      <c r="W15" s="2" t="n">
         <v>30.9</v>
       </c>
+      <c r="Y15" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z15" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA15" t="n">
         <v>0.13</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AB15" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1325,45 +1250,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K16" t="n">
+      <c r="J16" t="n">
         <v>598.6</v>
       </c>
+      <c r="M16" s="1" t="n">
+        <v>7.92</v>
+      </c>
       <c r="N16" s="1" t="n">
-        <v>7.92</v>
+        <v>2403.7</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>2403.7</v>
-      </c>
-      <c r="P16" s="1" t="n">
         <v>2120.4</v>
       </c>
+      <c r="Q16" t="n">
+        <v>3.41</v>
+      </c>
       <c r="R16" t="n">
-        <v>3.41</v>
+        <v>208.3</v>
       </c>
       <c r="S16" t="n">
-        <v>208.3</v>
-      </c>
-      <c r="T16" t="n">
         <v>1897.3</v>
       </c>
-      <c r="X16" s="2" t="n">
+      <c r="W16" s="2" t="n">
         <v>30.9</v>
       </c>
+      <c r="Y16" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z16" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA16" t="n">
         <v>0.28</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AB16" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1375,45 +1295,40 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K17" t="n">
+      <c r="J17" t="n">
         <v>1710.8</v>
       </c>
+      <c r="M17" s="1" t="n">
+        <v>7.56</v>
+      </c>
       <c r="N17" s="1" t="n">
-        <v>7.56</v>
+        <v>2705.9</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>2705.9</v>
-      </c>
-      <c r="P17" s="1" t="n">
         <v>2581.5</v>
       </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>122.1</v>
       </c>
       <c r="S17" t="n">
-        <v>122.1</v>
-      </c>
-      <c r="T17" t="n">
         <v>2417.4</v>
       </c>
-      <c r="X17" s="2" t="n">
+      <c r="W17" s="2" t="n">
         <v>30.9</v>
       </c>
+      <c r="Y17" t="n">
+        <v>10.66666666666667</v>
+      </c>
       <c r="Z17" t="n">
-        <v>10.66666666666667</v>
-      </c>
-      <c r="AA17" t="n">
         <v>1.18</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AB17" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -1440,56 +1355,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Saint Eustatius, Netherland Antilles</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Saint Eustatius, Netherland Antilles</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
           <t>17.4890° N, 62.9736° W</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="J18" t="n">
         <v>362.51</v>
       </c>
+      <c r="M18" s="1" t="n">
+        <v>8.1</v>
+      </c>
       <c r="N18" s="1" t="n">
-        <v>8.1</v>
+        <v>2326.01</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>2326.01</v>
-      </c>
-      <c r="P18" s="1" t="n">
         <v>1979.17</v>
       </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>245.61</v>
       </c>
       <c r="S18" t="n">
-        <v>245.61</v>
-      </c>
-      <c r="T18" t="n">
         <v>1793.53</v>
       </c>
+      <c r="W18" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X18" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y18" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y18" t="n">
+        <v>72</v>
+      </c>
       <c r="Z18" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA18" t="n">
         <v>2.21</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AB18" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1501,48 +1411,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
         <v>362.51</v>
       </c>
+      <c r="M19" s="1" t="n">
+        <v>8.1</v>
+      </c>
       <c r="N19" s="1" t="n">
-        <v>8.1</v>
+        <v>2326.01</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>2326.01</v>
-      </c>
-      <c r="P19" s="1" t="n">
         <v>1979.17</v>
       </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>245.61</v>
       </c>
       <c r="S19" t="n">
-        <v>245.61</v>
-      </c>
-      <c r="T19" t="n">
         <v>1793.53</v>
       </c>
+      <c r="W19" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X19" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y19" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y19" t="n">
+        <v>72</v>
+      </c>
       <c r="Z19" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA19" t="n">
         <v>2.53</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AB19" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1554,48 +1459,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
+      <c r="J20" t="n">
         <v>362.51</v>
       </c>
+      <c r="M20" s="1" t="n">
+        <v>8.1</v>
+      </c>
       <c r="N20" s="1" t="n">
-        <v>8.1</v>
+        <v>2326.01</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>2326.01</v>
-      </c>
-      <c r="P20" s="1" t="n">
         <v>1979.17</v>
       </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>245.61</v>
       </c>
       <c r="S20" t="n">
-        <v>245.61</v>
-      </c>
-      <c r="T20" t="n">
         <v>1793.53</v>
       </c>
+      <c r="W20" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X20" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y20" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y20" t="n">
+        <v>72</v>
+      </c>
       <c r="Z20" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA20" t="n">
         <v>2.55</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AB20" t="n">
         <v>0.59</v>
       </c>
-      <c r="AD20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1607,48 +1507,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
+      <c r="J21" t="n">
         <v>443.82</v>
       </c>
+      <c r="M21" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="N21" s="1" t="n">
-        <v>8</v>
+        <v>2323.91</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>2323.91</v>
-      </c>
-      <c r="P21" s="1" t="n">
         <v>2018.88</v>
       </c>
+      <c r="Q21" t="n">
+        <v>3.56</v>
+      </c>
       <c r="R21" t="n">
-        <v>3.56</v>
+        <v>207.38</v>
       </c>
       <c r="S21" t="n">
-        <v>207.38</v>
-      </c>
-      <c r="T21" t="n">
         <v>1853.36</v>
       </c>
+      <c r="W21" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X21" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y21" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y21" t="n">
+        <v>72</v>
+      </c>
       <c r="Z21" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA21" t="n">
         <v>2.81</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AB21" t="n">
         <v>0.98</v>
       </c>
-      <c r="AD21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1660,48 +1555,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
+      <c r="J22" t="n">
         <v>443.82</v>
       </c>
+      <c r="M22" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="N22" s="1" t="n">
-        <v>8</v>
+        <v>2323.91</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>2323.91</v>
-      </c>
-      <c r="P22" s="1" t="n">
         <v>2018.88</v>
       </c>
+      <c r="Q22" t="n">
+        <v>3.56</v>
+      </c>
       <c r="R22" t="n">
-        <v>3.56</v>
+        <v>207.38</v>
       </c>
       <c r="S22" t="n">
-        <v>207.38</v>
-      </c>
-      <c r="T22" t="n">
         <v>1853.36</v>
       </c>
+      <c r="W22" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X22" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y22" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y22" t="n">
+        <v>72</v>
+      </c>
       <c r="Z22" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA22" t="n">
         <v>2.05</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AB22" t="n">
         <v>0.2</v>
       </c>
-      <c r="AD22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1713,48 +1603,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
+      <c r="J23" t="n">
         <v>443.82</v>
       </c>
+      <c r="M23" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="N23" s="1" t="n">
-        <v>8</v>
+        <v>2323.91</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>2323.91</v>
-      </c>
-      <c r="P23" s="1" t="n">
         <v>2018.88</v>
       </c>
+      <c r="Q23" t="n">
+        <v>3.56</v>
+      </c>
       <c r="R23" t="n">
-        <v>3.56</v>
+        <v>207.38</v>
       </c>
       <c r="S23" t="n">
-        <v>207.38</v>
-      </c>
-      <c r="T23" t="n">
         <v>1853.36</v>
       </c>
+      <c r="W23" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X23" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y23" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y23" t="n">
+        <v>72</v>
+      </c>
       <c r="Z23" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="n">
         <v>2.84</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AB23" t="n">
         <v>1.12</v>
       </c>
-      <c r="AD23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1766,48 +1651,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
+      <c r="J24" t="n">
         <v>755.87</v>
       </c>
+      <c r="M24" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N24" s="1" t="n">
-        <v>7.8</v>
+        <v>2328.94</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>2328.94</v>
-      </c>
-      <c r="P24" s="1" t="n">
         <v>2129.06</v>
       </c>
+      <c r="Q24" t="n">
+        <v>2.49</v>
+      </c>
       <c r="R24" t="n">
-        <v>2.49</v>
+        <v>144.52</v>
       </c>
       <c r="S24" t="n">
-        <v>144.52</v>
-      </c>
-      <c r="T24" t="n">
         <v>1962.87</v>
       </c>
+      <c r="W24" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X24" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y24" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y24" t="n">
+        <v>72</v>
+      </c>
       <c r="Z24" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA24" t="n">
         <v>2.61</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AB24" t="n">
         <v>1.01</v>
       </c>
-      <c r="AD24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1819,48 +1699,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
+      <c r="J25" t="n">
         <v>755.87</v>
       </c>
+      <c r="M25" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N25" s="1" t="n">
-        <v>7.8</v>
+        <v>2328.94</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>2328.94</v>
-      </c>
-      <c r="P25" s="1" t="n">
         <v>2129.06</v>
       </c>
+      <c r="Q25" t="n">
+        <v>2.49</v>
+      </c>
       <c r="R25" t="n">
-        <v>2.49</v>
+        <v>144.52</v>
       </c>
       <c r="S25" t="n">
-        <v>144.52</v>
-      </c>
-      <c r="T25" t="n">
         <v>1962.87</v>
       </c>
+      <c r="W25" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X25" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y25" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y25" t="n">
+        <v>72</v>
+      </c>
       <c r="Z25" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA25" t="n">
         <v>2.94</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AB25" t="n">
         <v>1.47</v>
       </c>
-      <c r="AD25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1872,48 +1747,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
+      <c r="J26" t="n">
         <v>755.87</v>
       </c>
+      <c r="M26" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N26" s="1" t="n">
-        <v>7.8</v>
+        <v>2328.94</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>2328.94</v>
-      </c>
-      <c r="P26" s="1" t="n">
         <v>2129.06</v>
       </c>
+      <c r="Q26" t="n">
+        <v>2.49</v>
+      </c>
       <c r="R26" t="n">
-        <v>2.49</v>
+        <v>144.52</v>
       </c>
       <c r="S26" t="n">
-        <v>144.52</v>
-      </c>
-      <c r="T26" t="n">
         <v>1962.87</v>
       </c>
+      <c r="W26" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X26" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y26" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y26" t="n">
+        <v>72</v>
+      </c>
       <c r="Z26" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA26" t="n">
         <v>3.39</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AB26" t="n">
         <v>1.4</v>
       </c>
-      <c r="AD26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1925,48 +1795,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
+      <c r="J27" t="n">
         <v>1046.02</v>
       </c>
+      <c r="M27" s="1" t="n">
+        <v>7.69</v>
+      </c>
       <c r="N27" s="1" t="n">
-        <v>7.69</v>
+        <v>2323.74</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>2323.74</v>
-      </c>
-      <c r="P27" s="1" t="n">
         <v>2176.57</v>
       </c>
+      <c r="Q27" t="n">
+        <v>1.97</v>
+      </c>
       <c r="R27" t="n">
-        <v>1.97</v>
+        <v>111.89</v>
       </c>
       <c r="S27" t="n">
-        <v>111.89</v>
-      </c>
-      <c r="T27" t="n">
         <v>2031.49</v>
       </c>
+      <c r="W27" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X27" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y27" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y27" t="n">
+        <v>72</v>
+      </c>
       <c r="Z27" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA27" t="n">
         <v>3.01</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AB27" t="n">
         <v>1.16</v>
       </c>
-      <c r="AD27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -1978,48 +1843,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
+      <c r="J28" t="n">
         <v>1046.02</v>
       </c>
+      <c r="M28" s="1" t="n">
+        <v>7.69</v>
+      </c>
       <c r="N28" s="1" t="n">
-        <v>7.69</v>
+        <v>2323.74</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>2323.74</v>
-      </c>
-      <c r="P28" s="1" t="n">
         <v>2176.57</v>
       </c>
+      <c r="Q28" t="n">
+        <v>1.97</v>
+      </c>
       <c r="R28" t="n">
-        <v>1.97</v>
+        <v>111.89</v>
       </c>
       <c r="S28" t="n">
-        <v>111.89</v>
-      </c>
-      <c r="T28" t="n">
         <v>2031.49</v>
       </c>
+      <c r="W28" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X28" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y28" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y28" t="n">
+        <v>72</v>
+      </c>
       <c r="Z28" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA28" t="n">
         <v>3.34</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AB28" t="n">
         <v>1.02</v>
       </c>
-      <c r="AD28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2031,48 +1891,43 @@
           <t>Cliona carribeae</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
+      <c r="J29" t="n">
         <v>1046.02</v>
       </c>
+      <c r="M29" s="1" t="n">
+        <v>7.69</v>
+      </c>
       <c r="N29" s="1" t="n">
-        <v>7.69</v>
+        <v>2323.74</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>2323.74</v>
-      </c>
-      <c r="P29" s="1" t="n">
         <v>2176.57</v>
       </c>
+      <c r="Q29" t="n">
+        <v>1.97</v>
+      </c>
       <c r="R29" t="n">
-        <v>1.97</v>
+        <v>111.89</v>
       </c>
       <c r="S29" t="n">
-        <v>111.89</v>
-      </c>
-      <c r="T29" t="n">
         <v>2031.49</v>
       </c>
+      <c r="W29" s="2" t="n">
+        <v>27.6</v>
+      </c>
       <c r="X29" s="2" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="Y29" s="2" t="n">
         <v>34.1</v>
       </c>
+      <c r="Y29" t="n">
+        <v>72</v>
+      </c>
       <c r="Z29" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA29" t="n">
         <v>3.58</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AB29" t="n">
         <v>1.43</v>
       </c>
-      <c r="AD29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2099,56 +1954,51 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Emerald Reef, Miami-Dade, FL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Emerald Reef, Miami-Dade, FL</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
           <t>25.6742°N, 80.0987°W</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="J30" t="n">
         <v>502.6</v>
       </c>
+      <c r="M30" s="1" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="N30" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>2287.2</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>2287.2</v>
-      </c>
-      <c r="P30" s="1" t="n">
         <v>2020.4</v>
       </c>
+      <c r="Q30" t="n">
+        <v>3.1</v>
+      </c>
       <c r="R30" t="n">
-        <v>3.1</v>
+        <v>180.7</v>
       </c>
       <c r="S30" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="T30" t="n">
         <v>1782.1</v>
       </c>
+      <c r="W30" s="2" t="n">
+        <v>27.02</v>
+      </c>
       <c r="X30" s="2" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="Y30" s="2" t="n">
         <v>35.33</v>
       </c>
+      <c r="Y30" t="n">
+        <v>80</v>
+      </c>
       <c r="Z30" t="n">
-        <v>80</v>
+        <v>0.47</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AB30" t="n">
         <v>0.04</v>
       </c>
-      <c r="AD30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2160,48 +2010,43 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
+      <c r="J31" t="n">
         <v>611.5</v>
       </c>
+      <c r="M31" s="1" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="N31" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>2293.2</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>2293.2</v>
-      </c>
-      <c r="P31" s="1" t="n">
         <v>2054.7</v>
       </c>
+      <c r="Q31" t="n">
+        <v>2.8</v>
+      </c>
       <c r="R31" t="n">
-        <v>2.8</v>
+        <v>168</v>
       </c>
       <c r="S31" t="n">
-        <v>168</v>
-      </c>
-      <c r="T31" t="n">
         <v>1798.4</v>
       </c>
+      <c r="W31" s="2" t="n">
+        <v>27.02</v>
+      </c>
       <c r="X31" s="2" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="Y31" s="2" t="n">
         <v>35.58</v>
       </c>
+      <c r="Y31" t="n">
+        <v>80</v>
+      </c>
       <c r="Z31" t="n">
-        <v>80</v>
+        <v>0.76</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB31" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AD31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2213,48 +2058,43 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
+      <c r="J32" t="n">
         <v>954.7</v>
       </c>
+      <c r="M32" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N32" s="1" t="n">
-        <v>7.8</v>
+        <v>2293.2</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>2293.2</v>
-      </c>
-      <c r="P32" s="1" t="n">
         <v>2136.7</v>
       </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="S32" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="T32" t="n">
         <v>2111.4</v>
       </c>
+      <c r="W32" s="2" t="n">
+        <v>27.03</v>
+      </c>
       <c r="X32" s="2" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="Y32" s="2" t="n">
         <v>35.51</v>
       </c>
+      <c r="Y32" t="n">
+        <v>80</v>
+      </c>
       <c r="Z32" t="n">
-        <v>80</v>
+        <v>0.7</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AB32" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2266,48 +2106,43 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
+      <c r="J33" t="n">
         <v>982.9</v>
       </c>
+      <c r="M33" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N33" s="1" t="n">
-        <v>7.8</v>
+        <v>2280.1</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>2280.1</v>
-      </c>
-      <c r="P33" s="1" t="n">
         <v>2119.8</v>
       </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>104.1</v>
       </c>
       <c r="S33" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="T33" t="n">
         <v>2145</v>
       </c>
+      <c r="W33" s="2" t="n">
+        <v>27.03</v>
+      </c>
       <c r="X33" s="2" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="Y33" s="2" t="n">
         <v>35.59</v>
       </c>
+      <c r="Y33" t="n">
+        <v>80</v>
+      </c>
       <c r="Z33" t="n">
-        <v>80</v>
+        <v>0.85</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB33" t="n">
         <v>0.03</v>
       </c>
-      <c r="AD33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2321,56 +2156,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Cheeca Rocks, Florida Keys</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cheeca Rocks, Florida Keys</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
           <t>24.8966°N, 80.6169°W</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="J34" t="n">
         <v>502.6</v>
       </c>
+      <c r="M34" s="1" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="N34" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>2287.2</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>2287.2</v>
-      </c>
-      <c r="P34" s="1" t="n">
         <v>2020.4</v>
       </c>
+      <c r="Q34" t="n">
+        <v>3.1</v>
+      </c>
       <c r="R34" t="n">
-        <v>3.1</v>
+        <v>180.7</v>
       </c>
       <c r="S34" t="n">
-        <v>180.7</v>
-      </c>
-      <c r="T34" t="n">
         <v>1782.1</v>
       </c>
+      <c r="W34" s="2" t="n">
+        <v>27.02</v>
+      </c>
       <c r="X34" s="2" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="Y34" s="2" t="n">
         <v>35.33</v>
       </c>
+      <c r="Y34" t="n">
+        <v>81</v>
+      </c>
       <c r="Z34" t="n">
-        <v>81</v>
+        <v>0.67</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AB34" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2382,48 +2212,43 @@
           <t>Cliona delitrix</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
+      <c r="J35" t="n">
         <v>611.5</v>
       </c>
+      <c r="M35" s="1" t="n">
+        <v>8.050000000000001</v>
+      </c>
       <c r="N35" s="1" t="n">
-        <v>8.050000000000001</v>
+        <v>2293.2</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>2293.2</v>
-      </c>
-      <c r="P35" s="1" t="n">
         <v>2054.7</v>
       </c>
+      <c r="Q35" t="n">
+        <v>2.8</v>
+      </c>
       <c r="R35" t="n">
-        <v>2.8</v>
+        <v>168</v>
       </c>
       <c r="S35" t="n">
-        <v>168</v>
-      </c>
-      <c r="T35" t="n">
         <v>1798.4</v>
       </c>
+      <c r="W35" s="2" t="n">
+        <v>27.02</v>
+      </c>
       <c r="X35" s="2" t="n">
-        <v>27.02</v>
-      </c>
-      <c r="Y35" s="2" t="n">
         <v>35.58</v>
       </c>
+      <c r="Y35" t="n">
+        <v>81</v>
+      </c>
       <c r="Z35" t="n">
-        <v>81</v>
+        <v>0.93</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2435,48 +2260,43 @@
           <t>Cliona delitrix</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
+      <c r="J36" t="n">
         <v>954.7</v>
       </c>
+      <c r="M36" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N36" s="1" t="n">
-        <v>7.8</v>
+        <v>2293.2</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>2293.2</v>
-      </c>
-      <c r="P36" s="1" t="n">
         <v>2136.7</v>
       </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="S36" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="T36" t="n">
         <v>2111.4</v>
       </c>
+      <c r="W36" s="2" t="n">
+        <v>27.03</v>
+      </c>
       <c r="X36" s="2" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="Y36" s="2" t="n">
         <v>35.51</v>
       </c>
+      <c r="Y36" t="n">
+        <v>81</v>
+      </c>
       <c r="Z36" t="n">
-        <v>81</v>
+        <v>0.91</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AB36" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2488,48 +2308,43 @@
           <t>Cliona delitrix</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
+      <c r="J37" t="n">
         <v>982.9</v>
       </c>
+      <c r="M37" s="1" t="n">
+        <v>7.8</v>
+      </c>
       <c r="N37" s="1" t="n">
-        <v>7.8</v>
+        <v>2280.1</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>2280.1</v>
-      </c>
-      <c r="P37" s="1" t="n">
         <v>2119.8</v>
       </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>104.1</v>
       </c>
       <c r="S37" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="T37" t="n">
         <v>2145</v>
       </c>
+      <c r="W37" s="2" t="n">
+        <v>27.03</v>
+      </c>
       <c r="X37" s="2" t="n">
-        <v>27.03</v>
-      </c>
-      <c r="Y37" s="2" t="n">
         <v>35.59</v>
       </c>
+      <c r="Y37" t="n">
+        <v>81</v>
+      </c>
       <c r="Z37" t="n">
-        <v>81</v>
+        <v>1.02</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AB37" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -2556,55 +2371,50 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Orpheus Island, Great Barrier Reef</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orpheus Island, Great Barrier Reef</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
           <t>9°21'00.0"N 82°15'36.0"W</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="J38" t="n">
         <v>338.6</v>
       </c>
+      <c r="M38" s="1" t="n">
+        <v>8.109999999999999</v>
+      </c>
       <c r="N38" s="1" t="n">
-        <v>8.109999999999999</v>
+        <v>2226.16</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>2226.16</v>
-      </c>
-      <c r="P38" s="1" t="n">
         <v>1911.7</v>
       </c>
-      <c r="R38" t="n">
+      <c r="Q38" t="n">
         <v>3.59</v>
       </c>
+      <c r="W38" s="2" t="n">
+        <v>25.27</v>
+      </c>
       <c r="X38" s="2" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="Y38" s="2" t="n">
         <v>33.15</v>
       </c>
+      <c r="Y38" t="n">
+        <v>32</v>
+      </c>
       <c r="Z38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA38" t="n">
         <v>2.22</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AB38" t="n">
         <v>0.45</v>
       </c>
-      <c r="AD38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
       </c>
-      <c r="AE38" t="n">
+      <c r="AD38" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2614,47 +2424,42 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
+      <c r="J39" t="n">
         <v>393.2</v>
       </c>
+      <c r="M39" s="1" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="N39" s="1" t="n">
-        <v>8.039999999999999</v>
+        <v>2231</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>2231</v>
-      </c>
-      <c r="P39" s="1" t="n">
         <v>1945.4</v>
       </c>
-      <c r="R39" t="n">
+      <c r="Q39" t="n">
         <v>3.29</v>
       </c>
+      <c r="W39" s="2" t="n">
+        <v>25.27</v>
+      </c>
       <c r="X39" s="2" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="Y39" s="2" t="n">
         <v>33.14</v>
       </c>
+      <c r="Y39" t="n">
+        <v>32</v>
+      </c>
       <c r="Z39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA39" t="n">
         <v>2.23</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AB39" t="n">
         <v>0.15</v>
       </c>
-      <c r="AD39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
       </c>
-      <c r="AE39" t="n">
+      <c r="AD39" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2664,47 +2469,42 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
+      <c r="J40" t="n">
         <v>570.9</v>
       </c>
+      <c r="M40" s="1" t="n">
+        <v>7.9</v>
+      </c>
       <c r="N40" s="1" t="n">
-        <v>7.9</v>
+        <v>2225.7</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>2225.7</v>
-      </c>
-      <c r="P40" s="1" t="n">
         <v>2011.6</v>
       </c>
-      <c r="R40" t="n">
+      <c r="Q40" t="n">
         <v>2.56</v>
       </c>
+      <c r="W40" s="2" t="n">
+        <v>25.27</v>
+      </c>
       <c r="X40" s="2" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="Y40" s="2" t="n">
         <v>33.14</v>
       </c>
+      <c r="Y40" t="n">
+        <v>32</v>
+      </c>
       <c r="Z40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA40" t="n">
         <v>2.6</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AB40" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
       </c>
-      <c r="AE40" t="n">
+      <c r="AD40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2714,47 +2514,42 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
+      <c r="J41" t="n">
         <v>1409.5</v>
       </c>
+      <c r="M41" s="1" t="n">
+        <v>7.55</v>
+      </c>
       <c r="N41" s="1" t="n">
-        <v>7.55</v>
+        <v>2223.2</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>2223.2</v>
-      </c>
-      <c r="P41" s="1" t="n">
         <v>2153.3</v>
       </c>
-      <c r="R41" t="n">
+      <c r="Q41" t="n">
         <v>1.32</v>
       </c>
+      <c r="W41" s="2" t="n">
+        <v>25.27</v>
+      </c>
       <c r="X41" s="2" t="n">
-        <v>25.27</v>
-      </c>
-      <c r="Y41" s="2" t="n">
         <v>33.15</v>
       </c>
+      <c r="Y41" t="n">
+        <v>32</v>
+      </c>
       <c r="Z41" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA41" t="n">
         <v>3.59</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AB41" t="n">
         <v>0.4</v>
       </c>
-      <c r="AD41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
       </c>
-      <c r="AE41" t="n">
+      <c r="AD41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2779,47 +2574,42 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Heron Island, Great Barrier Reef</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Heron Island, Great Barrier Reef</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
           <t>23°27′S; 151°55′E</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="J42" t="n">
         <v>359.8</v>
       </c>
+      <c r="M42" s="1" t="n">
+        <v>8.220000000000001</v>
+      </c>
       <c r="N42" s="1" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="O42" s="1" t="n">
         <v>2286.6</v>
       </c>
-      <c r="P42" t="n">
+      <c r="O42" t="n">
         <v>2081</v>
       </c>
-      <c r="R42" t="n">
+      <c r="Q42" t="n">
         <v>4.6</v>
       </c>
-      <c r="X42" s="2" t="n">
+      <c r="W42" s="2" t="n">
         <v>25.5</v>
       </c>
+      <c r="Y42" t="n">
+        <v>48</v>
+      </c>
       <c r="Z42" t="n">
-        <v>48</v>
+        <v>2.23</v>
       </c>
       <c r="AA42" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AB42" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -2831,39 +2621,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="J43" t="n">
         <v>454.9</v>
       </c>
+      <c r="M43" s="1" t="n">
+        <v>8.140000000000001</v>
+      </c>
       <c r="N43" s="1" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="O43" s="1" t="n">
         <v>2288.5</v>
       </c>
-      <c r="P43" t="n">
+      <c r="O43" t="n">
         <v>2107.1</v>
       </c>
-      <c r="R43" t="n">
+      <c r="Q43" t="n">
         <v>4.2</v>
       </c>
-      <c r="X43" s="2" t="n">
+      <c r="W43" s="2" t="n">
         <v>26.9</v>
       </c>
+      <c r="Y43" t="n">
+        <v>48</v>
+      </c>
       <c r="Z43" t="n">
-        <v>48</v>
+        <v>2.52</v>
       </c>
       <c r="AA43" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AB43" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -2875,39 +2660,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
+      <c r="J44" t="n">
         <v>667.5</v>
       </c>
+      <c r="M44" s="1" t="n">
+        <v>8.01</v>
+      </c>
       <c r="N44" s="1" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="O44" s="1" t="n">
         <v>2340.6</v>
       </c>
-      <c r="P44" t="n">
+      <c r="O44" t="n">
         <v>2146.4</v>
       </c>
-      <c r="R44" t="n">
+      <c r="Q44" t="n">
         <v>3.4</v>
       </c>
-      <c r="X44" s="2" t="n">
+      <c r="W44" s="2" t="n">
         <v>28.4</v>
       </c>
+      <c r="Y44" t="n">
+        <v>48</v>
+      </c>
       <c r="Z44" t="n">
-        <v>48</v>
+        <v>3.14</v>
       </c>
       <c r="AA44" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AB44" t="n">
         <v>0.3</v>
       </c>
-      <c r="AD44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -2919,39 +2699,34 @@
           <t>Cliona orientalis</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
+      <c r="J45" t="n">
         <v>1005.6</v>
       </c>
+      <c r="M45" s="1" t="n">
+        <v>7.86</v>
+      </c>
       <c r="N45" s="1" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="O45" s="1" t="n">
         <v>2351.1</v>
       </c>
-      <c r="P45" t="n">
+      <c r="O45" t="n">
         <v>2192.9</v>
       </c>
-      <c r="R45" t="n">
+      <c r="Q45" t="n">
         <v>2.4</v>
       </c>
-      <c r="X45" s="2" t="n">
+      <c r="W45" s="2" t="n">
         <v>30.2</v>
       </c>
+      <c r="Y45" t="n">
+        <v>48</v>
+      </c>
       <c r="Z45" t="n">
-        <v>48</v>
+        <v>4.56</v>
       </c>
       <c r="AA45" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AB45" t="n">
         <v>0.35</v>
       </c>
-      <c r="AD45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -2978,50 +2753,45 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Emerald Reef, Miami-Dade waters</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Emerald Reef, Miami-Dade waters</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
           <t>25.6742°N, 80.0987°W</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="J46" t="n">
         <v>517</v>
       </c>
+      <c r="M46" s="1" t="n">
+        <v>7.977</v>
+      </c>
       <c r="N46" s="1" t="n">
-        <v>7.977</v>
+        <v>2484.1</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>2484.1</v>
-      </c>
-      <c r="P46" s="1" t="n">
         <v>2202.3</v>
       </c>
-      <c r="R46" t="n">
+      <c r="Q46" t="n">
         <v>3.27</v>
       </c>
+      <c r="W46" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="X46" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y46" s="2" t="n">
         <v>35.83</v>
       </c>
+      <c r="Y46" t="n">
+        <v>64</v>
+      </c>
       <c r="Z46" t="n">
-        <v>64</v>
+        <v>0.1268</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.1268</v>
-      </c>
-      <c r="AB46" t="n">
         <v>0.0341</v>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3033,42 +2803,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
+      <c r="J47" t="n">
         <v>676.5</v>
       </c>
+      <c r="M47" s="1" t="n">
+        <v>7.873</v>
+      </c>
       <c r="N47" s="1" t="n">
-        <v>7.873</v>
+        <v>2458.2</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>2458.2</v>
-      </c>
-      <c r="P47" s="1" t="n">
         <v>2232.5</v>
       </c>
-      <c r="R47" t="n">
+      <c r="Q47" t="n">
         <v>2.68</v>
       </c>
+      <c r="W47" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="X47" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y47" s="2" t="n">
         <v>36.35</v>
       </c>
+      <c r="Y47" t="n">
+        <v>64</v>
+      </c>
       <c r="Z47" t="n">
-        <v>64</v>
+        <v>0.1463</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.1463</v>
-      </c>
-      <c r="AB47" t="n">
         <v>0.053</v>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3080,42 +2845,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
+      <c r="J48" t="n">
         <v>873.1</v>
       </c>
+      <c r="M48" s="1" t="n">
+        <v>7.781</v>
+      </c>
       <c r="N48" s="1" t="n">
-        <v>7.781</v>
+        <v>2470.3</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>2470.3</v>
-      </c>
-      <c r="P48" s="1" t="n">
         <v>2292.7</v>
       </c>
-      <c r="R48" t="n">
+      <c r="Q48" t="n">
         <v>2.24</v>
       </c>
+      <c r="W48" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="X48" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y48" s="2" t="n">
         <v>35.82</v>
       </c>
+      <c r="Y48" t="n">
+        <v>64</v>
+      </c>
       <c r="Z48" t="n">
-        <v>64</v>
+        <v>0.1755</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.1755</v>
-      </c>
-      <c r="AB48" t="n">
         <v>0.06370000000000001</v>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3127,42 +2887,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
+      <c r="J49" t="n">
         <v>972.5</v>
       </c>
+      <c r="M49" s="1" t="n">
+        <v>7.743</v>
+      </c>
       <c r="N49" s="1" t="n">
-        <v>7.743</v>
+        <v>2492.5</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>2492.5</v>
-      </c>
-      <c r="P49" s="1" t="n">
         <v>2331.4</v>
       </c>
-      <c r="R49" t="n">
+      <c r="Q49" t="n">
         <v>2.09</v>
       </c>
+      <c r="W49" s="2" t="n">
+        <v>25</v>
+      </c>
       <c r="X49" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y49" s="2" t="n">
         <v>35.79</v>
       </c>
+      <c r="Y49" t="n">
+        <v>64</v>
+      </c>
       <c r="Z49" t="n">
-        <v>64</v>
+        <v>0.1562</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.1562</v>
-      </c>
-      <c r="AB49" t="n">
         <v>0.0516</v>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3189,50 +2944,45 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Cheeca Rocks, Upper Florida Keys</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Cheeca Rocks, Upper Florida Keys</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
           <t>24.8966°N, 80.6169°W</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="J50" t="n">
         <v>929.4</v>
       </c>
+      <c r="M50" s="1" t="n">
+        <v>7.75</v>
+      </c>
       <c r="N50" s="1" t="n">
-        <v>7.75</v>
+        <v>2394.4</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>2394.4</v>
-      </c>
-      <c r="P50" s="1" t="n">
         <v>2226.5</v>
       </c>
-      <c r="R50" t="n">
+      <c r="Q50" t="n">
         <v>2.2</v>
       </c>
+      <c r="W50" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X50" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y50" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y50" t="n">
+        <v>64</v>
+      </c>
       <c r="Z50" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA50" t="n">
         <v>0.85</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AB50" t="n">
         <v>0.08</v>
       </c>
-      <c r="AD50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3244,42 +2994,37 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
+      <c r="J51" t="n">
         <v>701.6</v>
       </c>
+      <c r="M51" s="1" t="n">
+        <v>7.85</v>
+      </c>
       <c r="N51" s="1" t="n">
-        <v>7.85</v>
+        <v>2379.7</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>2379.7</v>
-      </c>
-      <c r="P51" s="1" t="n">
         <v>2163.8</v>
       </c>
-      <c r="R51" t="n">
+      <c r="Q51" t="n">
         <v>2.7</v>
       </c>
+      <c r="W51" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X51" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y51" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y51" t="n">
+        <v>64</v>
+      </c>
       <c r="Z51" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA51" t="n">
         <v>1.03</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AB51" t="n">
         <v>0.12</v>
       </c>
-      <c r="AD51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3291,42 +3036,37 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
+      <c r="J52" t="n">
         <v>428.1</v>
       </c>
+      <c r="M52" s="1" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="N52" s="1" t="n">
-        <v>8.039999999999999</v>
+        <v>2387.6</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>2387.6</v>
-      </c>
-      <c r="P52" s="1" t="n">
         <v>2070.3</v>
       </c>
-      <c r="R52" t="n">
+      <c r="Q52" t="n">
         <v>3.8</v>
       </c>
+      <c r="W52" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X52" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y52" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y52" t="n">
+        <v>64</v>
+      </c>
       <c r="Z52" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA52" t="n">
         <v>0.73</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AB52" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3338,42 +3078,37 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
+      <c r="J53" t="n">
         <v>350.8</v>
       </c>
+      <c r="M53" s="1" t="n">
+        <v>8.1</v>
+      </c>
       <c r="N53" s="1" t="n">
-        <v>8.1</v>
+        <v>2380.4</v>
       </c>
       <c r="O53" s="1" t="n">
-        <v>2380.4</v>
-      </c>
-      <c r="P53" s="1" t="n">
         <v>2019.7</v>
       </c>
-      <c r="R53" t="n">
+      <c r="Q53" t="n">
         <v>4.2</v>
       </c>
+      <c r="W53" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X53" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y53" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y53" t="n">
+        <v>64</v>
+      </c>
       <c r="Z53" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA53" t="n">
         <v>0.64</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AB53" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3387,50 +3122,45 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Emerald Reef, Miami-Dade waters</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Emerald Reef, Miami-Dade waters</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
           <t>25.6742°N, 80.0987°W</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="J54" t="n">
         <v>929.4</v>
       </c>
+      <c r="M54" s="1" t="n">
+        <v>7.75</v>
+      </c>
       <c r="N54" s="1" t="n">
-        <v>7.75</v>
+        <v>2394.4</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>2394.4</v>
-      </c>
-      <c r="P54" s="1" t="n">
         <v>2226.5</v>
       </c>
-      <c r="R54" t="n">
+      <c r="Q54" t="n">
         <v>2.2</v>
       </c>
+      <c r="W54" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X54" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y54" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y54" t="n">
+        <v>72</v>
+      </c>
       <c r="Z54" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA54" t="n">
         <v>1.88</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AB54" t="n">
         <v>0.24</v>
       </c>
-      <c r="AD54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3442,42 +3172,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
+      <c r="J55" t="n">
         <v>701.6</v>
       </c>
+      <c r="M55" s="1" t="n">
+        <v>7.85</v>
+      </c>
       <c r="N55" s="1" t="n">
-        <v>7.85</v>
+        <v>2379.7</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>2379.7</v>
-      </c>
-      <c r="P55" s="1" t="n">
         <v>2163.8</v>
       </c>
-      <c r="R55" t="n">
+      <c r="Q55" t="n">
         <v>2.7</v>
       </c>
+      <c r="W55" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X55" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y55" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y55" t="n">
+        <v>72</v>
+      </c>
       <c r="Z55" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA55" t="n">
         <v>1.97</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AB55" t="n">
         <v>0.31</v>
       </c>
-      <c r="AD55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3489,42 +3214,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
+      <c r="J56" t="n">
         <v>428.1</v>
       </c>
+      <c r="M56" s="1" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="N56" s="1" t="n">
-        <v>8.039999999999999</v>
+        <v>2387.6</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>2387.6</v>
-      </c>
-      <c r="P56" s="1" t="n">
         <v>2070.3</v>
       </c>
-      <c r="R56" t="n">
+      <c r="Q56" t="n">
         <v>3.8</v>
       </c>
+      <c r="W56" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X56" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y56" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y56" t="n">
+        <v>72</v>
+      </c>
       <c r="Z56" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA56" t="n">
         <v>1.18</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AB56" t="n">
         <v>0.13</v>
       </c>
-      <c r="AD56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3536,42 +3256,37 @@
           <t>Pione lampa</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
+      <c r="J57" t="n">
         <v>350.8</v>
       </c>
+      <c r="M57" s="1" t="n">
+        <v>8.1</v>
+      </c>
       <c r="N57" s="1" t="n">
-        <v>8.1</v>
+        <v>2380.4</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>2380.4</v>
-      </c>
-      <c r="P57" s="1" t="n">
         <v>2019.7</v>
       </c>
-      <c r="R57" t="n">
+      <c r="Q57" t="n">
         <v>4.2</v>
       </c>
+      <c r="W57" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X57" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y57" s="2" t="n">
         <v>35</v>
       </c>
+      <c r="Y57" t="n">
+        <v>72</v>
+      </c>
       <c r="Z57" t="n">
-        <v>72</v>
-      </c>
-      <c r="AA57" t="n">
         <v>1.05</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AB57" t="n">
         <v>0.15</v>
       </c>
-      <c r="AD57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3598,53 +3313,48 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>Smithsonian Tropical Research Institute, Bocas del Toro, Panama</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Smithsonian Tropical Research Institute, Bocas del Toro, Panama</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
           <t>9.3492°N, 82.2587°W</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="J58" t="n">
         <v>540</v>
       </c>
-      <c r="L58" s="1" t="n">
+      <c r="K58" s="1" t="n">
         <v>8.140000000000001</v>
       </c>
+      <c r="M58" t="n">
+        <v>8.039999999999999</v>
+      </c>
       <c r="N58" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="O58" t="n">
         <v>2724</v>
       </c>
-      <c r="P58" s="1" t="n">
+      <c r="O58" s="1" t="n">
         <v>2438</v>
       </c>
-      <c r="R58" t="n">
+      <c r="Q58" t="n">
         <v>3.4</v>
       </c>
+      <c r="W58" s="2" t="n">
+        <v>29.77</v>
+      </c>
       <c r="X58" s="2" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="Y58" s="2" t="n">
         <v>33.38</v>
       </c>
+      <c r="Y58" t="n">
+        <v>11</v>
+      </c>
       <c r="Z58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA58" t="n">
         <v>0.01</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AB58" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3656,45 +3366,40 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
+      <c r="J59" t="n">
         <v>1284</v>
       </c>
-      <c r="L59" s="1" t="n">
+      <c r="K59" s="1" t="n">
         <v>7.78</v>
       </c>
+      <c r="M59" t="n">
+        <v>7.68</v>
+      </c>
       <c r="N59" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="O59" t="n">
         <v>2535</v>
       </c>
-      <c r="P59" s="1" t="n">
+      <c r="O59" s="1" t="n">
         <v>2448</v>
       </c>
-      <c r="R59" t="n">
+      <c r="Q59" t="n">
         <v>1.56</v>
       </c>
+      <c r="W59" s="2" t="n">
+        <v>29.76</v>
+      </c>
       <c r="X59" s="2" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="Y59" s="2" t="n">
         <v>33.35</v>
       </c>
+      <c r="Y59" t="n">
+        <v>6</v>
+      </c>
       <c r="Z59" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA59" t="n">
         <v>0.02</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AB59" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3706,45 +3411,40 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
+      <c r="J60" t="n">
         <v>2253</v>
       </c>
-      <c r="L60" s="1" t="n">
+      <c r="K60" s="1" t="n">
         <v>7.56</v>
       </c>
+      <c r="M60" t="n">
+        <v>7.48</v>
+      </c>
       <c r="N60" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="O60" t="n">
         <v>2595</v>
       </c>
-      <c r="P60" s="1" t="n">
+      <c r="O60" s="1" t="n">
         <v>2578</v>
       </c>
-      <c r="R60" t="n">
+      <c r="Q60" t="n">
         <v>1.04</v>
       </c>
+      <c r="W60" s="2" t="n">
+        <v>29.76</v>
+      </c>
       <c r="X60" s="2" t="n">
-        <v>29.76</v>
-      </c>
-      <c r="Y60" s="2" t="n">
         <v>33.34</v>
       </c>
+      <c r="Y60" t="n">
+        <v>7</v>
+      </c>
       <c r="Z60" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA60" t="n">
         <v>0.05</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AB60" t="n">
         <v>0.06</v>
       </c>
-      <c r="AD60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3756,45 +3456,40 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
+      <c r="J61" t="n">
         <v>534</v>
       </c>
-      <c r="L61" s="1" t="n">
+      <c r="K61" s="1" t="n">
         <v>8.130000000000001</v>
       </c>
+      <c r="M61" t="n">
+        <v>8.029999999999999</v>
+      </c>
       <c r="N61" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="O61" t="n">
         <v>2612</v>
       </c>
-      <c r="P61" s="1" t="n">
+      <c r="O61" s="1" t="n">
         <v>2338</v>
       </c>
-      <c r="R61" t="n">
+      <c r="Q61" t="n">
         <v>3.26</v>
       </c>
+      <c r="W61" s="2" t="n">
+        <v>30.67</v>
+      </c>
       <c r="X61" s="2" t="n">
-        <v>30.67</v>
-      </c>
-      <c r="Y61" s="2" t="n">
         <v>33.35</v>
       </c>
+      <c r="Y61" t="n">
+        <v>3</v>
+      </c>
       <c r="Z61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA61" t="n">
         <v>0.02</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AB61" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3806,45 +3501,40 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
+      <c r="J62" t="n">
         <v>1337</v>
       </c>
-      <c r="L62" s="1" t="n">
+      <c r="K62" s="1" t="n">
         <v>7.76</v>
       </c>
+      <c r="M62" t="n">
+        <v>7.66</v>
+      </c>
       <c r="N62" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="O62" t="n">
         <v>2538</v>
       </c>
-      <c r="P62" s="1" t="n">
+      <c r="O62" s="1" t="n">
         <v>2448</v>
       </c>
-      <c r="R62" t="n">
+      <c r="Q62" t="n">
         <v>1.56</v>
       </c>
+      <c r="W62" s="2" t="n">
+        <v>30.79</v>
+      </c>
       <c r="X62" s="2" t="n">
-        <v>30.79</v>
-      </c>
-      <c r="Y62" s="2" t="n">
         <v>33.29</v>
       </c>
+      <c r="Y62" t="n">
+        <v>2</v>
+      </c>
       <c r="Z62" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA62" t="n">
         <v>0.11</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AB62" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3856,45 +3546,40 @@
           <t>Cliona varians</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>sponge</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="J63" t="n">
         <v>2234</v>
       </c>
-      <c r="L63" s="1" t="n">
+      <c r="K63" s="1" t="n">
         <v>7.58</v>
       </c>
+      <c r="M63" t="n">
+        <v>7.5</v>
+      </c>
       <c r="N63" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O63" t="n">
         <v>2704</v>
       </c>
-      <c r="P63" s="1" t="n">
+      <c r="O63" s="1" t="n">
         <v>2679</v>
       </c>
-      <c r="R63" t="n">
+      <c r="Q63" t="n">
         <v>1.13</v>
       </c>
+      <c r="W63" s="2" t="n">
+        <v>30.62</v>
+      </c>
       <c r="X63" s="2" t="n">
-        <v>30.62</v>
-      </c>
-      <c r="Y63" s="2" t="n">
         <v>33.37</v>
       </c>
+      <c r="Y63" t="n">
+        <v>5</v>
+      </c>
       <c r="Z63" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA63" t="n">
         <v>0.04</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AB63" t="n">
         <v>0.01</v>
       </c>
-      <c r="AD63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -3921,50 +3606,45 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>microerosion</t>
+          <t>Heron Island, Southern Great Barrier Reef (Australia)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Heron Island, Southern Great Barrier Reef (Australia)</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
           <t>23°26.6′S, 151°54.5′E</t>
         </is>
       </c>
-      <c r="K64" s="1" t="n">
+      <c r="J64" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="O64" s="1" t="n">
+      <c r="N64" s="1" t="n">
         <v>2239</v>
       </c>
-      <c r="P64" t="n">
+      <c r="O64" t="n">
         <v>1747</v>
       </c>
-      <c r="R64" t="n">
+      <c r="Q64" t="n">
         <v>3.1</v>
       </c>
+      <c r="W64" s="2" t="n">
+        <v>23.4</v>
+      </c>
       <c r="X64" s="2" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Y64" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y64" t="n">
+        <v>60</v>
+      </c>
       <c r="Z64" t="n">
-        <v>60</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AB64" t="n">
         <v>0.71</v>
       </c>
-      <c r="AD64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -3976,42 +3656,37 @@
           <t>coral skeleton: Isopora cuneata</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K65" s="1" t="n">
+      <c r="J65" s="1" t="n">
         <v>651</v>
       </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>7.84</v>
       </c>
-      <c r="O65" s="1" t="n">
+      <c r="N65" s="1" t="n">
         <v>2240</v>
       </c>
-      <c r="P65" t="n">
+      <c r="O65" t="n">
         <v>1870</v>
       </c>
-      <c r="R65" t="n">
+      <c r="Q65" t="n">
         <v>2.4</v>
       </c>
+      <c r="W65" s="2" t="n">
+        <v>25.6</v>
+      </c>
       <c r="X65" s="2" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="Y65" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y65" t="n">
+        <v>60</v>
+      </c>
       <c r="Z65" t="n">
-        <v>60</v>
+        <v>10.65</v>
       </c>
       <c r="AA65" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AB65" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -4023,42 +3698,37 @@
           <t>coral skeleton: Isopora cuneata</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K66" s="1" t="n">
+      <c r="J66" s="1" t="n">
         <v>1103</v>
       </c>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>7.65</v>
       </c>
-      <c r="O66" s="1" t="n">
+      <c r="N66" s="1" t="n">
         <v>2239</v>
       </c>
-      <c r="P66" t="n">
+      <c r="O66" t="n">
         <v>1960</v>
       </c>
-      <c r="R66" t="n">
+      <c r="Q66" t="n">
         <v>1.8</v>
       </c>
+      <c r="W66" s="2" t="n">
+        <v>29.2</v>
+      </c>
       <c r="X66" s="2" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="Y66" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y66" t="n">
+        <v>60</v>
+      </c>
       <c r="Z66" t="n">
-        <v>60</v>
+        <v>11.76</v>
       </c>
       <c r="AA66" t="n">
-        <v>11.76</v>
-      </c>
-      <c r="AB66" t="n">
         <v>0.99</v>
       </c>
-      <c r="AD66" t="inlineStr">
+      <c r="AC66" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -4070,42 +3740,37 @@
           <t>coral skeleton: Porites cylindrica</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K67" s="1" t="n">
+      <c r="J67" s="1" t="n">
         <v>391</v>
       </c>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>8.029999999999999</v>
       </c>
-      <c r="O67" s="1" t="n">
+      <c r="N67" s="1" t="n">
         <v>2239</v>
       </c>
-      <c r="P67" t="n">
+      <c r="O67" t="n">
         <v>1747</v>
       </c>
-      <c r="R67" t="n">
+      <c r="Q67" t="n">
         <v>3.1</v>
       </c>
+      <c r="W67" s="2" t="n">
+        <v>23.4</v>
+      </c>
       <c r="X67" s="2" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Y67" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y67" t="n">
+        <v>60</v>
+      </c>
       <c r="Z67" t="n">
-        <v>60</v>
+        <v>12.67</v>
       </c>
       <c r="AA67" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="AB67" t="n">
         <v>1.26</v>
       </c>
-      <c r="AD67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -4117,42 +3782,37 @@
           <t>coral skeleton: Porites cylindrica</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K68" s="1" t="n">
+      <c r="J68" s="1" t="n">
         <v>651</v>
       </c>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>7.84</v>
       </c>
-      <c r="O68" s="1" t="n">
+      <c r="N68" s="1" t="n">
         <v>2240</v>
       </c>
-      <c r="P68" t="n">
+      <c r="O68" t="n">
         <v>1870</v>
       </c>
-      <c r="R68" t="n">
+      <c r="Q68" t="n">
         <v>2.4</v>
       </c>
+      <c r="W68" s="2" t="n">
+        <v>25.6</v>
+      </c>
       <c r="X68" s="2" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="Y68" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y68" t="n">
+        <v>60</v>
+      </c>
       <c r="Z68" t="n">
-        <v>60</v>
+        <v>17.21</v>
       </c>
       <c r="AA68" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="AB68" t="n">
         <v>1.44</v>
       </c>
-      <c r="AD68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -4164,42 +3824,37 @@
           <t>coral skeleton: Porites cylindrica</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K69" s="1" t="n">
+      <c r="J69" s="1" t="n">
         <v>1103</v>
       </c>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>7.65</v>
       </c>
-      <c r="O69" s="1" t="n">
+      <c r="N69" s="1" t="n">
         <v>2239</v>
       </c>
-      <c r="P69" t="n">
+      <c r="O69" t="n">
         <v>1960</v>
       </c>
-      <c r="R69" t="n">
+      <c r="Q69" t="n">
         <v>1.8</v>
       </c>
+      <c r="W69" s="2" t="n">
+        <v>29.2</v>
+      </c>
       <c r="X69" s="2" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="Y69" s="2" t="n">
         <v>35.8</v>
       </c>
+      <c r="Y69" t="n">
+        <v>60</v>
+      </c>
       <c r="Z69" t="n">
-        <v>60</v>
+        <v>23.96</v>
       </c>
       <c r="AA69" t="n">
-        <v>23.96</v>
-      </c>
-      <c r="AB69" t="n">
         <v>2.12</v>
       </c>
-      <c r="AD69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 month-1</t>
         </is>
@@ -4226,55 +3881,50 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>Smithsonian Tropical Research Institute, Bocas del Toro, Panama</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Smithsonian Tropical Research Institute, Bocas del Toro, Panama</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
           <t>9.3492°N, 82.2587°W</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="J70" t="n">
         <v>531</v>
       </c>
-      <c r="L70" s="1" t="n">
+      <c r="K70" s="1" t="n">
         <v>8.140000000000001</v>
       </c>
-      <c r="O70" t="n">
+      <c r="N70" t="n">
         <v>2684</v>
       </c>
-      <c r="P70" s="1" t="n">
+      <c r="O70" s="1" t="n">
         <v>2403</v>
       </c>
-      <c r="R70" t="n">
+      <c r="Q70" t="n">
         <v>3.4</v>
       </c>
+      <c r="W70" s="2" t="n">
+        <v>29.6</v>
+      </c>
       <c r="X70" s="2" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="Y70" s="2" t="n">
         <v>35.1</v>
       </c>
+      <c r="Y70" t="n">
+        <v>75</v>
+      </c>
       <c r="Z70" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AB70" t="n">
         <v>0.016</v>
       </c>
-      <c r="AD70" t="inlineStr">
+      <c r="AC70" t="inlineStr">
         <is>
           <t>% CaCO3 d-1</t>
         </is>
       </c>
-      <c r="AE70" t="n">
+      <c r="AD70" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4284,47 +3934,42 @@
           <t>rubble</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
+      <c r="J71" t="n">
         <v>1297</v>
       </c>
-      <c r="L71" s="1" t="n">
+      <c r="K71" s="1" t="n">
         <v>7.78</v>
       </c>
-      <c r="O71" t="n">
+      <c r="N71" t="n">
         <v>2563</v>
       </c>
-      <c r="P71" s="1" t="n">
+      <c r="O71" s="1" t="n">
         <v>2468</v>
       </c>
-      <c r="R71" t="n">
+      <c r="Q71" t="n">
         <v>1.58</v>
       </c>
+      <c r="W71" s="2" t="n">
+        <v>29.7</v>
+      </c>
       <c r="X71" s="2" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="Y71" s="2" t="n">
         <v>34.4</v>
       </c>
+      <c r="Y71" t="n">
+        <v>75</v>
+      </c>
       <c r="Z71" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA71" t="n">
         <v>0.06</v>
       </c>
-      <c r="AC71" t="n">
+      <c r="AB71" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD71" t="inlineStr">
+      <c r="AC71" t="inlineStr">
         <is>
           <t>% CaCO3 d-1</t>
         </is>
       </c>
-      <c r="AE71" t="n">
+      <c r="AD71" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4334,47 +3979,42 @@
           <t>rubble</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
+      <c r="J72" t="n">
         <v>2194</v>
       </c>
-      <c r="L72" s="1" t="n">
+      <c r="K72" s="1" t="n">
         <v>7.57</v>
       </c>
-      <c r="O72" t="n">
+      <c r="N72" t="n">
         <v>2583</v>
       </c>
-      <c r="P72" s="1" t="n">
+      <c r="O72" s="1" t="n">
         <v>2561</v>
       </c>
-      <c r="R72" t="n">
+      <c r="Q72" t="n">
         <v>1.06</v>
       </c>
+      <c r="W72" s="2" t="n">
+        <v>29.6</v>
+      </c>
       <c r="X72" s="2" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="Y72" s="2" t="n">
         <v>34.7</v>
       </c>
+      <c r="Y72" t="n">
+        <v>75</v>
+      </c>
       <c r="Z72" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA72" t="n">
         <v>0.1</v>
       </c>
-      <c r="AC72" t="n">
+      <c r="AB72" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD72" t="inlineStr">
+      <c r="AC72" t="inlineStr">
         <is>
           <t>% CaCO3 d-1</t>
         </is>
       </c>
-      <c r="AE72" t="n">
+      <c r="AD72" t="n">
         <v>53</v>
       </c>
     </row>
@@ -4399,50 +4039,45 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>Cheeca Rocks, FL, USA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Cheeca Rocks, FL, USA</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
           <t>24.8966°N, 80.6169°W</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="J73" t="n">
         <v>414</v>
       </c>
+      <c r="M73" s="1" t="n">
+        <v>8.06</v>
+      </c>
       <c r="N73" s="1" t="n">
-        <v>8.06</v>
+        <v>2425</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>2425</v>
-      </c>
-      <c r="P73" s="1" t="n">
         <v>2112</v>
       </c>
-      <c r="R73" t="n">
+      <c r="Q73" t="n">
         <v>4.06</v>
       </c>
+      <c r="W73" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X73" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y73" s="2" t="n">
         <v>34.82</v>
       </c>
+      <c r="Y73" t="n">
+        <v>90</v>
+      </c>
       <c r="Z73" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA73" t="n">
         <v>0.83</v>
       </c>
-      <c r="AC73" t="n">
+      <c r="AB73" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AC73" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4454,42 +4089,37 @@
           <t>rubble Porites</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
+      <c r="J74" t="n">
         <v>640</v>
       </c>
+      <c r="M74" s="1" t="n">
+        <v>7.9</v>
+      </c>
       <c r="N74" s="1" t="n">
-        <v>7.9</v>
+        <v>2424</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>2424</v>
-      </c>
-      <c r="P74" s="1" t="n">
         <v>2214</v>
       </c>
-      <c r="R74" t="n">
+      <c r="Q74" t="n">
         <v>3.05</v>
       </c>
+      <c r="W74" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X74" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y74" s="2" t="n">
         <v>34.78</v>
       </c>
+      <c r="Y74" t="n">
+        <v>90</v>
+      </c>
       <c r="Z74" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA74" t="n">
         <v>1.34</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AB74" t="n">
         <v>0.1</v>
       </c>
-      <c r="AD74" t="inlineStr">
+      <c r="AC74" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4501,42 +4131,37 @@
           <t>rubble Porites</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
+      <c r="J75" t="n">
         <v>1094</v>
       </c>
+      <c r="M75" s="1" t="n">
+        <v>7.7</v>
+      </c>
       <c r="N75" s="1" t="n">
-        <v>7.7</v>
+        <v>2425</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>2425</v>
-      </c>
-      <c r="P75" s="1" t="n">
         <v>2311</v>
       </c>
-      <c r="R75" t="n">
+      <c r="Q75" t="n">
         <v>2.09</v>
       </c>
+      <c r="W75" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X75" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y75" s="2" t="n">
         <v>34.74</v>
       </c>
+      <c r="Y75" t="n">
+        <v>90</v>
+      </c>
       <c r="Z75" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA75" t="n">
         <v>1.15</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AB75" t="n">
         <v>0.7</v>
       </c>
-      <c r="AD75" t="inlineStr">
+      <c r="AC75" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4550,50 +4175,45 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>Little Conch, FL, USA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Little Conch, FL, USA</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
           <t>24.9476°N, 80.4445°W</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="J76" t="n">
         <v>414</v>
       </c>
+      <c r="M76" s="1" t="n">
+        <v>8.06</v>
+      </c>
       <c r="N76" s="1" t="n">
-        <v>8.06</v>
+        <v>2425</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>2425</v>
-      </c>
-      <c r="P76" s="1" t="n">
         <v>2112</v>
       </c>
-      <c r="R76" t="n">
+      <c r="Q76" t="n">
         <v>4.06</v>
       </c>
+      <c r="W76" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X76" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y76" s="2" t="n">
         <v>34.82</v>
       </c>
+      <c r="Y76" t="n">
+        <v>90</v>
+      </c>
       <c r="Z76" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA76" t="n">
         <v>1.88</v>
       </c>
-      <c r="AC76" t="n">
+      <c r="AB76" t="n">
         <v>1.29</v>
       </c>
-      <c r="AD76" t="inlineStr">
+      <c r="AC76" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4605,42 +4225,37 @@
           <t>rubble Orbicella</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K77" t="n">
+      <c r="J77" t="n">
         <v>640</v>
       </c>
+      <c r="M77" s="1" t="n">
+        <v>7.9</v>
+      </c>
       <c r="N77" s="1" t="n">
-        <v>7.9</v>
+        <v>2424</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>2424</v>
-      </c>
-      <c r="P77" s="1" t="n">
         <v>2214</v>
       </c>
-      <c r="R77" t="n">
+      <c r="Q77" t="n">
         <v>3.05</v>
       </c>
+      <c r="W77" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X77" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y77" s="2" t="n">
         <v>34.78</v>
       </c>
+      <c r="Y77" t="n">
+        <v>90</v>
+      </c>
       <c r="Z77" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA77" t="n">
         <v>2.34</v>
       </c>
-      <c r="AC77" t="n">
+      <c r="AB77" t="n">
         <v>0.85</v>
       </c>
-      <c r="AD77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4652,42 +4267,37 @@
           <t>rubble Orbicella</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
+      <c r="J78" t="n">
         <v>1094</v>
       </c>
+      <c r="M78" s="1" t="n">
+        <v>7.7</v>
+      </c>
       <c r="N78" s="1" t="n">
-        <v>7.7</v>
+        <v>2425</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>2425</v>
-      </c>
-      <c r="P78" s="1" t="n">
         <v>2311</v>
       </c>
-      <c r="R78" t="n">
+      <c r="Q78" t="n">
         <v>2.09</v>
       </c>
+      <c r="W78" s="2" t="n">
+        <v>27.5</v>
+      </c>
       <c r="X78" s="2" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="Y78" s="2" t="n">
         <v>34.74</v>
       </c>
+      <c r="Y78" t="n">
+        <v>90</v>
+      </c>
       <c r="Z78" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA78" t="n">
         <v>2.03</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AB78" t="n">
         <v>1.26</v>
       </c>
-      <c r="AD78" t="inlineStr">
+      <c r="AC78" t="inlineStr">
         <is>
           <t>kg CaCO3 m-2 yr-1</t>
         </is>
@@ -4714,50 +4324,45 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>microerosion</t>
+          <t>Kaneohe Bay, Hawaii</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kaneohe Bay, Hawaii</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
           <t>21.45°N, 157.80°W</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="J79" t="n">
         <v>409</v>
       </c>
+      <c r="M79" s="1" t="n">
+        <v>8.02</v>
+      </c>
       <c r="N79" s="1" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="O79" s="1" t="n">
         <v>2137</v>
       </c>
-      <c r="P79" t="n">
+      <c r="O79" t="n">
         <v>1898</v>
       </c>
-      <c r="R79" t="n">
+      <c r="Q79" t="n">
         <v>3.06</v>
       </c>
+      <c r="W79" s="2" t="n">
+        <v>23.8</v>
+      </c>
       <c r="X79" s="2" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="Y79" s="2" t="n">
         <v>35.65</v>
       </c>
+      <c r="Y79" t="n">
+        <v>24</v>
+      </c>
       <c r="Z79" t="n">
-        <v>24</v>
+        <v>0.6125</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.6125</v>
-      </c>
-      <c r="AB79" t="n">
         <v>0.0745</v>
       </c>
-      <c r="AD79" t="inlineStr">
+      <c r="AC79" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -4769,42 +4374,37 @@
           <t>rubble</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K80" t="n">
+      <c r="J80" t="n">
         <v>614</v>
       </c>
+      <c r="M80" s="1" t="n">
+        <v>7.87</v>
+      </c>
       <c r="N80" s="1" t="n">
-        <v>7.87</v>
-      </c>
-      <c r="O80" s="1" t="n">
         <v>2138</v>
       </c>
-      <c r="P80" t="n">
+      <c r="O80" t="n">
         <v>1980</v>
       </c>
-      <c r="R80" t="n">
+      <c r="Q80" t="n">
         <v>2.32</v>
       </c>
+      <c r="W80" s="2" t="n">
+        <v>24.8</v>
+      </c>
       <c r="X80" s="2" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="Y80" s="2" t="n">
         <v>35.71</v>
       </c>
+      <c r="Y80" t="n">
+        <v>24</v>
+      </c>
       <c r="Z80" t="n">
-        <v>24</v>
+        <v>1.0737</v>
       </c>
       <c r="AA80" t="n">
-        <v>1.0737</v>
-      </c>
-      <c r="AB80" t="n">
         <v>0.0432</v>
       </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AC80" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -4816,42 +4416,37 @@
           <t>rubble</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K81" t="n">
+      <c r="J81" t="n">
         <v>868</v>
       </c>
+      <c r="M81" s="1" t="n">
+        <v>7.74</v>
+      </c>
       <c r="N81" s="1" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="O81" s="1" t="n">
         <v>2139</v>
       </c>
-      <c r="P81" t="n">
+      <c r="O81" t="n">
         <v>2032</v>
       </c>
-      <c r="R81" t="n">
+      <c r="Q81" t="n">
         <v>1.8</v>
       </c>
+      <c r="W81" s="2" t="n">
+        <v>26.2</v>
+      </c>
       <c r="X81" s="2" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="Y81" s="2" t="n">
         <v>35.62</v>
       </c>
+      <c r="Y81" t="n">
+        <v>24</v>
+      </c>
       <c r="Z81" t="n">
-        <v>24</v>
+        <v>1.4494</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.4494</v>
-      </c>
-      <c r="AB81" t="n">
         <v>0.0528</v>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AC81" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
@@ -4863,42 +4458,37 @@
           <t>rubble</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>microerosion</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
+      <c r="J82" t="n">
         <v>1047</v>
       </c>
+      <c r="M82" s="1" t="n">
+        <v>7.67</v>
+      </c>
       <c r="N82" s="1" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="O82" s="1" t="n">
         <v>2142</v>
       </c>
-      <c r="P82" t="n">
+      <c r="O82" t="n">
         <v>2067</v>
       </c>
-      <c r="R82" t="n">
+      <c r="Q82" t="n">
         <v>1.57</v>
       </c>
+      <c r="W82" s="2" t="n">
+        <v>27.2</v>
+      </c>
       <c r="X82" s="2" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="Y82" s="2" t="n">
         <v>35.71</v>
       </c>
+      <c r="Y82" t="n">
+        <v>24</v>
+      </c>
       <c r="Z82" t="n">
-        <v>24</v>
+        <v>2.0465</v>
       </c>
       <c r="AA82" t="n">
-        <v>2.0465</v>
-      </c>
-      <c r="AB82" t="n">
         <v>0.1057</v>
       </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AC82" t="inlineStr">
         <is>
           <t>mg CaCO3 cm-2 day-1</t>
         </is>
